--- a/ClosedXML_Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/input.xlsx
+++ b/ClosedXML_Tests/Resource/Other/PivotTableReferenceFiles/PivotSubtotalsSource/input.xlsx
@@ -313,7 +313,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -334,8 +334,26 @@
     <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="43">
+  <x:cellXfs count="55">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
@@ -438,6 +456,54 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
@@ -1024,128 +1090,128 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:8" customFormat="1" ht="30.75" customHeight="1">
-      <x:c r="B2" s="13" t="s">
+      <x:c r="B2" s="44" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="13" t="s">
+      <x:c r="C2" s="44" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="14" t="s">
+      <x:c r="D2" s="45" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="14" t="s">
+      <x:c r="E2" s="45" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F2" s="13" t="s">
+      <x:c r="F2" s="44" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G2" s="14" t="s">
+      <x:c r="G2" s="45" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H2" s="14" t="s">
+      <x:c r="H2" s="45" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8" customFormat="1" ht="20.1" customHeight="1">
-      <x:c r="B3" s="1" t="s">
+      <x:c r="B3" s="46" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C3" s="15" t="s">
+      <x:c r="C3" s="47" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D3" s="15" t="s">
+      <x:c r="D3" s="47" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="E3" s="16">
+      <x:c r="E3" s="48">
         <x:v>32289</x:v>
       </x:c>
-      <x:c r="F3" s="17" t="n">
+      <x:c r="F3" s="49" t="n">
         <x:v>134.85</x:v>
       </x:c>
-      <x:c r="G3" s="18" t="n">
+      <x:c r="G3" s="50" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H3" s="17" t="n">
+      <x:c r="H3" s="49" t="n">
         <x:v>134.85</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
-      <x:c r="B4" s="1" t="s">
+      <x:c r="B4" s="46" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C4" s="15" t="s">
+      <x:c r="C4" s="47" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D4" s="15" t="s">
+      <x:c r="D4" s="47" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E4" s="16">
+      <x:c r="E4" s="48">
         <x:v>32343</x:v>
       </x:c>
-      <x:c r="F4" s="17" t="n">
+      <x:c r="F4" s="49" t="n">
         <x:v>20108</x:v>
       </x:c>
-      <x:c r="G4" s="18" t="n">
+      <x:c r="G4" s="50" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H4" s="17" t="n">
+      <x:c r="H4" s="49" t="n">
         <x:v>20108</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="B5" s="1" t="s">
+      <x:c r="B5" s="46" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C5" s="15" t="s">
+      <x:c r="C5" s="47" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D5" s="15" t="s">
+      <x:c r="D5" s="47" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E5" s="16">
+      <x:c r="E5" s="48">
         <x:v>32382</x:v>
       </x:c>
-      <x:c r="F5" s="17" t="n">
+      <x:c r="F5" s="49" t="n">
         <x:v>10152</x:v>
       </x:c>
-      <x:c r="G5" s="18" t="n">
+      <x:c r="G5" s="50" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H5" s="17" t="n">
+      <x:c r="H5" s="49" t="n">
         <x:v>10152</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="B6" s="1" t="s">
+      <x:c r="B6" s="46" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C6" s="15" t="s">
+      <x:c r="C6" s="47" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D6" s="15" t="s">
+      <x:c r="D6" s="47" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E6" s="16">
+      <x:c r="E6" s="48">
         <x:v>34261</x:v>
       </x:c>
-      <x:c r="F6" s="17" t="n">
+      <x:c r="F6" s="49" t="n">
         <x:v>1004.8</x:v>
       </x:c>
-      <x:c r="G6" s="18" t="n">
+      <x:c r="G6" s="50" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H6" s="17" t="n">
+      <x:c r="H6" s="49" t="n">
         <x:v>1004.8</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
-      <x:c r="B7" s="19" t="s"/>
-      <x:c r="C7" s="19" t="s"/>
-      <x:c r="D7" s="19" t="s"/>
-      <x:c r="E7" s="20" t="s"/>
-      <x:c r="F7" s="21" t="s"/>
-      <x:c r="G7" s="22" t="s"/>
-      <x:c r="H7" s="21" t="s"/>
+      <x:c r="B7" s="51" t="s"/>
+      <x:c r="C7" s="51" t="s"/>
+      <x:c r="D7" s="51" t="s"/>
+      <x:c r="E7" s="52" t="s"/>
+      <x:c r="F7" s="53" t="s"/>
+      <x:c r="G7" s="54" t="s"/>
+      <x:c r="H7" s="53" t="s"/>
     </x:row>
   </x:sheetData>
   <x:sortState ref="B3:H207">
